--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>0.01959113925427904</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936754296654374</v>
+        <v>-1.933242880995739</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3900907647207283</v>
+        <v>0.3910587766050008</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2303362308376506</v>
+        <v>-0.2296470881387417</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04790542280902754</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.950200609547598</v>
+        <v>-1.947381986708099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3082433888405685</v>
+        <v>0.309642114911659</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2102926906456559</v>
+        <v>-0.2094882041475652</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06926561228450356</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.023870986094623</v>
+        <v>-2.017291279372944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2783751850448492</v>
+        <v>0.2825772034504844</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.227338752107015</v>
+        <v>-0.2269518393629242</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07705440117467659</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.083726387605471</v>
+        <v>-2.08171590138429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2557166987220371</v>
+        <v>0.2585637924993091</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.232583244849559</v>
+        <v>-0.2338067651497405</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07124579475776206</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.048196117313208</v>
+        <v>-2.048916651046071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2402927506896776</v>
+        <v>0.2452218730445854</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2205947899751077</v>
+        <v>-0.2217628284478347</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.05436515761416392</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.909265971246836</v>
+        <v>-1.915388682916062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2608268670402176</v>
+        <v>0.2614897288734901</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2078675507666566</v>
+        <v>-0.2083756475022928</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03202381776817061</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.637374355709727</v>
+        <v>-1.643814627838726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2625176027294898</v>
+        <v>0.2591186107738544</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1868559986903895</v>
+        <v>-0.1830073119227542</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.009872723118970018</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.262346403078919</v>
+        <v>-1.267014176825554</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2449678246767673</v>
+        <v>0.243755984761313</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1310719412810409</v>
+        <v>-0.1254463759867696</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.005353619672454273</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7791157464789578</v>
+        <v>-0.7795420805215031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2700996324655787</v>
+        <v>0.268319833842761</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03117107075679494</v>
+        <v>-0.0262638491232508</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.005147271684393504</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2482802218749185</v>
+        <v>-0.2444446755401013</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1572773363367908</v>
+        <v>0.1622298194611531</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05634859195654519</v>
+        <v>0.06188071417299825</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01880450834631018</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4238558368710829</v>
+        <v>0.4225155127236287</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03477200126909644</v>
+        <v>0.04110130974318565</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1537980417361554</v>
+        <v>0.1609916986800626</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.07427614394379091</v>
       </c>
       <c r="E13" t="n">
-        <v>1.102496409862082</v>
+        <v>1.108237318955535</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1286906028447688</v>
+        <v>-0.1243615602552245</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2880947251860284</v>
+        <v>0.2925318113343</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.164717747185368</v>
       </c>
       <c r="E14" t="n">
-        <v>1.821773041319253</v>
+        <v>1.824833302117798</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3593417000060705</v>
+        <v>-0.3463706327664376</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4329636168621713</v>
+        <v>0.439126479853897</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2902905064854234</v>
       </c>
       <c r="E15" t="n">
-        <v>2.528142847652791</v>
+        <v>2.529708019206245</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6306668168839067</v>
+        <v>-0.618092882725001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6221040867508478</v>
+        <v>0.627282877329301</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4481072628249194</v>
       </c>
       <c r="E16" t="n">
-        <v>3.203133300416519</v>
+        <v>3.201536007805064</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9453071804747313</v>
+        <v>-0.9370958700114608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7787891476267148</v>
+        <v>0.7828145002133501</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6330597808580521</v>
       </c>
       <c r="E17" t="n">
-        <v>3.862288071586251</v>
+        <v>3.859125607421342</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.210412492485296</v>
+        <v>-1.196686580382664</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9770242570736616</v>
+        <v>0.9817971542828422</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8378429140007926</v>
       </c>
       <c r="E18" t="n">
-        <v>4.40094799390947</v>
+        <v>4.399070372064561</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.567165023162201</v>
+        <v>-1.557170993979931</v>
       </c>
       <c r="G18" t="n">
-        <v>1.176367543021608</v>
+        <v>1.18085281075688</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.05391440586721</v>
       </c>
       <c r="E19" t="n">
-        <v>4.928873642668328</v>
+        <v>4.928019514535146</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.855355155538123</v>
+        <v>-1.839764031999355</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378016244905099</v>
+        <v>1.377156276579554</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.269735588336144</v>
       </c>
       <c r="E20" t="n">
-        <v>5.292010963646776</v>
+        <v>5.28972014819214</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.175781689713219</v>
+        <v>-2.16034168115186</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586589954883771</v>
+        <v>1.586560753921952</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.470820895949062</v>
       </c>
       <c r="E21" t="n">
-        <v>5.600135132607875</v>
+        <v>5.601054962905147</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.494359803005224</v>
+        <v>-2.475993858069684</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768798116436813</v>
+        <v>1.766654765839359</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.644326242233982</v>
       </c>
       <c r="E22" t="n">
-        <v>5.841603726074719</v>
+        <v>5.838368259505265</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.805014235307868</v>
+        <v>-2.785930676735646</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894877649231052</v>
+        <v>1.894125724464234</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.782533345527323</v>
       </c>
       <c r="E23" t="n">
-        <v>5.997008324774859</v>
+        <v>5.987793961273134</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.054344457720211</v>
+        <v>-3.03716042171426</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014855641053383</v>
+        <v>2.012046508526474</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.881822047280561</v>
       </c>
       <c r="E24" t="n">
-        <v>6.08600701620429</v>
+        <v>6.078208899350747</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.286688480642921</v>
+        <v>-3.270886380155016</v>
       </c>
       <c r="G24" t="n">
-        <v>2.118251866707264</v>
+        <v>2.114171032293175</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.94229941265166</v>
       </c>
       <c r="E25" t="n">
-        <v>6.102651564440649</v>
+        <v>6.091654482219925</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.462557843409283</v>
+        <v>-3.445500101563197</v>
       </c>
       <c r="G25" t="n">
-        <v>2.170128835425341</v>
+        <v>2.171536321784977</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.966630989379449</v>
       </c>
       <c r="E26" t="n">
-        <v>6.049194823688209</v>
+        <v>6.039599387634757</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.629758900659919</v>
+        <v>-3.61084032752197</v>
       </c>
       <c r="G26" t="n">
-        <v>2.195408108071335</v>
+        <v>2.197735424728243</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.958984117023788</v>
       </c>
       <c r="E27" t="n">
-        <v>5.943608525897965</v>
+        <v>5.938695464072056</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.720828670306304</v>
+        <v>-3.698968830289219</v>
       </c>
       <c r="G27" t="n">
-        <v>2.201134416683878</v>
+        <v>2.199531283880061</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.924426367517448</v>
       </c>
       <c r="E28" t="n">
-        <v>5.870095104520711</v>
+        <v>5.866363221600349</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.786094280018014</v>
+        <v>-3.766145642951928</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207108933471877</v>
+        <v>2.207581989053331</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.868083567624294</v>
       </c>
       <c r="E29" t="n">
-        <v>5.671861455121856</v>
+        <v>5.67018093976922</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.825945562635321</v>
+        <v>-3.8038667154046</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207379042368695</v>
+        <v>2.204482306956332</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.794314782865091</v>
       </c>
       <c r="E30" t="n">
-        <v>5.46022894439273</v>
+        <v>5.459379196403821</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.857889954816313</v>
+        <v>-3.82919781975782</v>
       </c>
       <c r="G30" t="n">
-        <v>2.162159892945162</v>
+        <v>2.158645557190344</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.706332875806893</v>
       </c>
       <c r="E31" t="n">
-        <v>5.178883517466988</v>
+        <v>5.180939265178988</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.752348188492841</v>
+        <v>-3.725903797470303</v>
       </c>
       <c r="G31" t="n">
-        <v>2.080670228847274</v>
+        <v>2.075932372792276</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.606782765955178</v>
       </c>
       <c r="E32" t="n">
-        <v>4.874216742385161</v>
+        <v>4.874213822288978</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.672441216525499</v>
+        <v>-3.643747621418916</v>
       </c>
       <c r="G32" t="n">
-        <v>1.934646439131223</v>
+        <v>1.929962604855588</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.498485883123433</v>
       </c>
       <c r="E33" t="n">
-        <v>4.591992366508691</v>
+        <v>4.592357378531418</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.532430634871855</v>
+        <v>-3.508031041200634</v>
       </c>
       <c r="G33" t="n">
-        <v>1.842032668628702</v>
+        <v>1.837737207145249</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.383481696234895</v>
       </c>
       <c r="E34" t="n">
-        <v>4.260008091645962</v>
+        <v>4.261490040458234</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.414160169291841</v>
+        <v>-3.395809554861255</v>
       </c>
       <c r="G34" t="n">
-        <v>1.712762930755828</v>
+        <v>1.713507555282191</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.263602862836124</v>
       </c>
       <c r="E35" t="n">
-        <v>3.919875288387872</v>
+        <v>3.917067615909054</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.296075129819373</v>
+        <v>-3.277077714084514</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602970234415675</v>
+        <v>1.599540581450131</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.14128431858662</v>
       </c>
       <c r="E36" t="n">
-        <v>3.587813630976324</v>
+        <v>3.581304736587053</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.171522807328224</v>
+        <v>-3.151407724779775</v>
       </c>
       <c r="G36" t="n">
-        <v>1.453748939380534</v>
+        <v>1.454811854390715</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.019198419528484</v>
       </c>
       <c r="E37" t="n">
-        <v>3.23253866896742</v>
+        <v>3.232461286418602</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.027081709742718</v>
+        <v>-3.01247976878554</v>
       </c>
       <c r="G37" t="n">
-        <v>1.323408986257023</v>
+        <v>1.32388642198275</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9002259515018074</v>
       </c>
       <c r="E38" t="n">
-        <v>2.875127656601515</v>
+        <v>2.872918603839971</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.967574529701552</v>
+        <v>-2.957944052493918</v>
       </c>
       <c r="G38" t="n">
-        <v>1.177999876787244</v>
+        <v>1.178151721788699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7883555434297057</v>
       </c>
       <c r="E39" t="n">
-        <v>2.528926893477609</v>
+        <v>2.529087498767609</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.828715925991635</v>
+        <v>-2.81832111360841</v>
       </c>
       <c r="G39" t="n">
-        <v>1.077790936115816</v>
+        <v>1.077199616638998</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6863027786553045</v>
       </c>
       <c r="E40" t="n">
-        <v>2.212135879048875</v>
+        <v>2.211861390007785</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.709381085353348</v>
+        <v>-2.701575668259351</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9569398355351215</v>
+        <v>0.9570843802961215</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5957622999906148</v>
       </c>
       <c r="E41" t="n">
-        <v>1.879008386530965</v>
+        <v>1.879135410714874</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.580447888565429</v>
+        <v>-2.572433684594431</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8354521539867905</v>
+        <v>0.8352871685525178</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.516822917940891</v>
       </c>
       <c r="E42" t="n">
-        <v>1.546410891470054</v>
+        <v>1.548349835334781</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.517929359336764</v>
+        <v>-2.507031560386221</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7194002314809126</v>
+        <v>0.7191111419589127</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4484455073608014</v>
       </c>
       <c r="E43" t="n">
-        <v>1.282204969083489</v>
+        <v>1.282955433802216</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.438315857035694</v>
+        <v>-2.426686573991606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6545273747056572</v>
+        <v>0.6552938999533844</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3886711699204012</v>
       </c>
       <c r="E44" t="n">
-        <v>1.016731724954015</v>
+        <v>1.014430689162742</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.320649851365316</v>
+        <v>-2.312464091743637</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5474255469970497</v>
+        <v>0.5478329004144132</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3350722600638451</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8013454305831633</v>
+        <v>0.7935604541624381</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.275813964565647</v>
+        <v>-2.268344358532558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.440357300394533</v>
+        <v>0.4414275156451691</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2859003683594418</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5674179855058625</v>
+        <v>0.5592942779280465</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.184382102992717</v>
+        <v>-2.177117633716401</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3773387046947317</v>
+        <v>0.3737382261025509</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2396614391281848</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3689010867773704</v>
+        <v>0.3608211806422816</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.098291097336331</v>
+        <v>-2.087521782617788</v>
       </c>
       <c r="G47" t="n">
-        <v>0.29576143771139</v>
+        <v>0.293507123459027</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1955648385707985</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2529440673974015</v>
+        <v>0.2416097140676773</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.991985725861314</v>
+        <v>-1.983176525704816</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2085133439429589</v>
+        <v>0.2043595071243236</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1534586845835232</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1221836204237093</v>
+        <v>0.1124801408115301</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.896053266048158</v>
+        <v>-1.884607219039479</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1542345961153371</v>
+        <v>0.1522080493651558</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1133631803432609</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01663966402810131</v>
+        <v>0.007428220622558329</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.813213787490225</v>
+        <v>-1.800452967175683</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08963914847735444</v>
+        <v>0.08576126074790093</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07500975744843781</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0747695667994196</v>
+        <v>-0.08311958183132645</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.683986391011987</v>
+        <v>-1.670921880694537</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03394415400155121</v>
+        <v>0.02788787452046193</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03865472351901107</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1844001978014811</v>
+        <v>-0.1872925530695712</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.565928362429201</v>
+        <v>-1.551022731469114</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007197081104074107</v>
+        <v>-0.00906886275661906</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.003825613044717032</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.308352440527266</v>
+        <v>-0.3071318403232663</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.45080357046105</v>
+        <v>-1.438593188276781</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07603688854232835</v>
+        <v>-0.07638584003605553</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02973390553608715</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3395916294803485</v>
+        <v>-0.3410750383407117</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.378341383709251</v>
+        <v>-1.366893146628436</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1404104088704929</v>
+        <v>-0.1400979585790384</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06200388002275656</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4710032579025859</v>
+        <v>-0.4694337062048591</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.335935746956899</v>
+        <v>-1.321907604899448</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1545276138614891</v>
+        <v>-0.1500540265109448</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09270700436972412</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5555152215486542</v>
+        <v>-0.5488720027350196</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.243227073328469</v>
+        <v>-1.236699198314017</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2012914941652038</v>
+        <v>-0.2002052183855677</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1214923297185479</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6594983865350807</v>
+        <v>-0.6486954907104473</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.202999828327753</v>
+        <v>-1.195626585468664</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2347324356393767</v>
+        <v>-0.2296996498700144</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1479692072205211</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.683866589172347</v>
+        <v>-0.6716080254010776</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.159570697863674</v>
+        <v>-1.155714710855584</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2696918271280945</v>
+        <v>-0.2642122666429142</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1720042674078252</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7747326821100499</v>
+        <v>-0.7672397153075063</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.14775452866395</v>
+        <v>-1.142550917267951</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3220024301291714</v>
+        <v>-0.3164659277684456</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1934845202090018</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8382914956034873</v>
+        <v>-0.8332236686799432</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.103310664776689</v>
+        <v>-1.102904771407416</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3564011631509804</v>
+        <v>-0.3504047456416183</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2123153955685509</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.973249580838542</v>
+        <v>-0.9640775587314535</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.099394815796872</v>
+        <v>-1.09426566685351</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3990783688482416</v>
+        <v>-0.3934455033135159</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2284378169870353</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.096867472551509</v>
+        <v>-1.085829508984239</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.098618070212508</v>
+        <v>-1.094065640265055</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.442729426622139</v>
+        <v>-0.4353532636668682</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2418667108879946</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.154686836999584</v>
+        <v>-1.145091400946132</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.137477250152043</v>
+        <v>-1.133210989630408</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.50320899869185</v>
+        <v>-0.4946677173600341</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2528667570327494</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.249887812719195</v>
+        <v>-1.241660441726924</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.168057957416126</v>
+        <v>-1.162017738464037</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5295584865884793</v>
+        <v>-0.5229678295061174</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2619392266717293</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.386059197917795</v>
+        <v>-1.372356646584617</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.129651392384773</v>
+        <v>-1.12294685155132</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5547136551467453</v>
+        <v>-0.5481054774872925</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2695918512984332</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.445481695169688</v>
+        <v>-1.431710521576237</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.211819978844932</v>
+        <v>-1.20190187216339</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6091515482162762</v>
+        <v>-0.6025097894507324</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2757802945425596</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.544020340825116</v>
+        <v>-1.531417205704392</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.303842429870635</v>
+        <v>-1.292655541398092</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6517615917013556</v>
+        <v>-0.6474150285347203</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2805879282942405</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.563481321828838</v>
+        <v>-1.556760720466385</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.375403766950343</v>
+        <v>-1.362369917642801</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.67577354260444</v>
+        <v>-0.6709889650105322</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2840671245303491</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.626349532575276</v>
+        <v>-1.622588448693095</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.457280343792321</v>
+        <v>-1.444732690499052</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6677169972388058</v>
+        <v>-0.6661883268876244</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2867960671929608</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.681237120456806</v>
+        <v>-1.677503777488353</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.530405392377392</v>
+        <v>-1.519785002564122</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6938752188355261</v>
+        <v>-0.6911113477994359</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2894668443024668</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.717903308163797</v>
+        <v>-1.710838135451889</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.643602920865544</v>
+        <v>-1.630882981897547</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7386636540722413</v>
+        <v>-0.7323080647325158</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2925451383272873</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.69655448497853</v>
+        <v>-1.690705532326349</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.737213904214155</v>
+        <v>-1.724918839240613</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7600270777384174</v>
+        <v>-0.7543328901838735</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2964838367138415</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.687251058543259</v>
+        <v>-1.678950685146443</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.789468295363732</v>
+        <v>-1.777251342963053</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7776308775705036</v>
+        <v>-0.7757809966393223</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3010150083510172</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.637951074705636</v>
+        <v>-1.630281442084093</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.858424906649259</v>
+        <v>-1.848624333839034</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7776221172819582</v>
+        <v>-0.7731280892581411</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3053537355220698</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.547946410141569</v>
+        <v>-1.54206679647948</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.95829438613955</v>
+        <v>-1.950673665129052</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7795230998963213</v>
+        <v>-0.7763036938558676</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3090753036890818</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.43017309093651</v>
+        <v>-1.423870063328057</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.010007829471445</v>
+        <v>-2.003516455659265</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7644743842233253</v>
+        <v>-0.7633311665681438</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3117205916567044</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290823181044002</v>
+        <v>-1.288339639241366</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.062587081321249</v>
+        <v>-2.054787504419615</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7513777528478742</v>
+        <v>-0.7501323318263292</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3122845983835267</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.102271110535962</v>
+        <v>-1.105360572296325</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.085644890796925</v>
+        <v>-2.081326798568063</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7241113547501543</v>
+        <v>-0.7241390956638816</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3100213538659695</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9351248050887341</v>
+        <v>-0.9434310186779136</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.084505323261971</v>
+        <v>-2.078273838009972</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6689740986450782</v>
+        <v>-0.6690879823961691</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3043545810202052</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6959747679902528</v>
+        <v>-0.7010367547214332</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.116597910324189</v>
+        <v>-2.112343330187282</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.613934665762093</v>
+        <v>-0.6106583178460939</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2949539223002883</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4380616528755039</v>
+        <v>-0.4440025885574114</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.11693664148128</v>
+        <v>-2.114372797033645</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.518832973312664</v>
+        <v>-0.5167086033403918</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.281718045893404</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1537187472191257</v>
+        <v>-0.1551291536749435</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.103721746210466</v>
+        <v>-2.099973802761103</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.450996218912864</v>
+        <v>-0.448134524654683</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.26461271188069</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1429060829779765</v>
+        <v>0.1444858550123397</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.046144749745481</v>
+        <v>-2.034593579274257</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3371577293128037</v>
+        <v>-0.3340288462539863</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2437547717121081</v>
       </c>
       <c r="E84" t="n">
-        <v>0.482142416708249</v>
+        <v>0.4883768220564292</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.989670089589133</v>
+        <v>-1.977304212283181</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2564973725305526</v>
+        <v>-0.2534356516839171</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.219856998551001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7853681243243494</v>
+        <v>0.7938568439248926</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.91621288006338</v>
+        <v>-1.905391003613564</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1832964014447541</v>
+        <v>-0.1795732788129369</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1936538147623425</v>
       </c>
       <c r="E86" t="n">
-        <v>1.102981145828264</v>
+        <v>1.109287093532899</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.869265033700211</v>
+        <v>-1.855735498065805</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1062014821005021</v>
+        <v>-0.105515259497775</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1656888990690933</v>
       </c>
       <c r="E87" t="n">
-        <v>1.352923858414742</v>
+        <v>1.354432088092651</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.702762609461073</v>
+        <v>-1.68186932128017</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05959236689442367</v>
+        <v>-0.05932517809378738</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1375613330031119</v>
       </c>
       <c r="E88" t="n">
-        <v>1.575719896846955</v>
+        <v>1.578016552493955</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.524702444534303</v>
+        <v>-1.501497900225491</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01003732656101217</v>
+        <v>0.009935123194648565</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1113596060167351</v>
       </c>
       <c r="E89" t="n">
-        <v>1.758079903401452</v>
+        <v>1.765831298716086</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.300825970514818</v>
+        <v>-1.270151820172917</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06494097497154289</v>
+        <v>0.06576298204672448</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08898302917547263</v>
       </c>
       <c r="E90" t="n">
-        <v>1.938035210750222</v>
+        <v>1.947420399878583</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.075412065855605</v>
+        <v>-1.041363744375615</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09734382225307964</v>
+        <v>0.09801544437489763</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07239522352053798</v>
       </c>
       <c r="E91" t="n">
-        <v>2.120455079276446</v>
+        <v>2.130790759711988</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8519400251573018</v>
+        <v>-0.8172157014112202</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08034156223444784</v>
+        <v>0.08155924234226569</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06355444397231487</v>
       </c>
       <c r="E92" t="n">
-        <v>2.238821178006414</v>
+        <v>2.24680034082323</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6525660781994462</v>
+        <v>-0.6166547353554559</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09397257121117146</v>
+        <v>0.09238403888826278</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06349502073555299</v>
       </c>
       <c r="E93" t="n">
-        <v>2.342645197750931</v>
+        <v>2.35014692484202</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4029533364815133</v>
+        <v>-0.3684056785544317</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04667431330618416</v>
+        <v>0.04337022447645777</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.07257845000527922</v>
       </c>
       <c r="E94" t="n">
-        <v>2.363885977377471</v>
+        <v>2.369856114021197</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2615622793579149</v>
+        <v>-0.2264393624830152</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01054980344092113</v>
+        <v>0.008180145389376309</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08993541992690959</v>
       </c>
       <c r="E95" t="n">
-        <v>2.321746069377664</v>
+        <v>2.325101259890572</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09269749730768752</v>
+        <v>-0.06230221615115022</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02692087076415972</v>
+        <v>-0.0284115798649775</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1136398895902527</v>
       </c>
       <c r="E96" t="n">
-        <v>2.223779762573872</v>
+        <v>2.226734899909872</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02695490379037127</v>
+        <v>0.0578772623077266</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06616258330351282</v>
+        <v>-0.07035000122823896</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1414317824705267</v>
       </c>
       <c r="E97" t="n">
-        <v>2.072699826319004</v>
+        <v>2.078627621568093</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1061946337801682</v>
+        <v>0.1294926211667983</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1202544449754983</v>
+        <v>-0.1254230152173151</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.171673165754797</v>
       </c>
       <c r="E98" t="n">
-        <v>1.880293228850965</v>
+        <v>1.885895433375781</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1768624214282401</v>
+        <v>0.1954575939140533</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1387882954414933</v>
+        <v>-0.1401081789156748</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.201795987603963</v>
       </c>
       <c r="E99" t="n">
-        <v>1.681252172857836</v>
+        <v>1.689022548797652</v>
       </c>
       <c r="F99" t="n">
-        <v>0.189897730783873</v>
+        <v>0.2052720371811416</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1354331049285851</v>
+        <v>-0.1340738001559491</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.230319733324013</v>
       </c>
       <c r="E100" t="n">
-        <v>1.518344387018516</v>
+        <v>1.530839478580513</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2169699424855021</v>
+        <v>0.229524896019226</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1287782057302233</v>
+        <v>-0.1301725516570411</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2542435133697505</v>
       </c>
       <c r="E101" t="n">
-        <v>1.371786219701192</v>
+        <v>1.387744545334824</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2127591637913214</v>
+        <v>0.2208390699264101</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1102939968993192</v>
+        <v>-0.1108794761837735</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2722117524809519</v>
       </c>
       <c r="E102" t="n">
-        <v>1.184361306319333</v>
+        <v>1.206390511914964</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2272603614302266</v>
+        <v>0.235217623525679</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1427990475472195</v>
+        <v>-0.1424354955725833</v>
       </c>
     </row>
   </sheetData>
